--- a/BTL_JV-main/Dat_Hang.xlsx
+++ b/BTL_JV-main/Dat_Hang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>Mã Đơn</t>
   </si>
@@ -41,46 +41,91 @@
     <t>Thành Tiền</t>
   </si>
   <si>
-    <t>D100</t>
+    <t>D1</t>
   </si>
   <si>
     <t>abc</t>
   </si>
   <si>
-    <t>KTPM1</t>
+    <t>KTMP1</t>
   </si>
   <si>
     <t>CNTT</t>
   </si>
   <si>
-    <t>Ao khoac</t>
+    <t>Quần áo thể dục</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
+    <t>K17</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100000.0</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>200000.0</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Áo khoác</t>
+  </si>
+  <si>
+    <t>220000.0</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Đồng phục thực hành</t>
+  </si>
+  <si>
+    <t>240000.0</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
     <t>K15</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1000000.0</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Quần áo thể dục</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>2XL</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>KTMP2</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>KTMP3</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>K14</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -257,7 +302,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -266,15 +311,15 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -286,7 +331,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -295,15 +340,15 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -315,7 +360,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -324,15 +369,15 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -344,19 +389,164 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/BTL_JV-main/Dat_Hang.xlsx
+++ b/BTL_JV-main/Dat_Hang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>Mã Đơn</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Thành Tiền</t>
   </si>
   <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>100000.0</t>
+  </si>
+  <si>
+    <t>Chưa gửi</t>
   </si>
   <si>
     <t>D2</t>
@@ -133,13 +139,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -207,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -218,6 +229,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -258,295 +270,328 @@
       <c r="I1" t="s" s="9">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
+      <c r="J6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
+      <c r="J7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
+      <c r="J11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/BTL_JV-main/Dat_Hang.xlsx
+++ b/BTL_JV-main/Dat_Hang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>Mã Đơn</t>
   </si>
@@ -50,10 +50,10 @@
     <t>abc</t>
   </si>
   <si>
-    <t>KTMP1</t>
-  </si>
-  <si>
-    <t>CNTT</t>
+    <t>KTPM1</t>
+  </si>
+  <si>
+    <t>cntt</t>
   </si>
   <si>
     <t>Quần áo thể dục</t>
@@ -86,52 +86,64 @@
     <t>D3</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>300000.0</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>500000.0</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>600000.0</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>700000.0</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>Đồng phục thực hành</t>
+  </si>
+  <si>
+    <t>840000.0</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
     <t>Áo khoác</t>
   </si>
   <si>
-    <t>220000.0</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>Đồng phục thực hành</t>
-  </si>
-  <si>
-    <t>240000.0</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>K15</t>
-  </si>
-  <si>
-    <t>D6</t>
+    <t>770000.0</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
   <si>
     <t>2XL</t>
   </si>
   <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>KTMP2</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>KTMP3</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>K14</t>
-  </si>
-  <si>
-    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -352,16 +364,16 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -384,16 +396,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
       <c r="I5" t="s">
         <v>28</v>
@@ -416,19 +428,19 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -436,7 +448,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -448,19 +460,19 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -468,31 +480,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -500,19 +512,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -521,10 +533,10 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -532,65 +544,33 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
         <v>19</v>
       </c>
     </row>
